--- a/dataset05-cropping-table-babb02.1,babb03-whole_organism&no_tail.xlsx
+++ b/dataset05-cropping-table-babb02.1,babb03-whole_organism&no_tail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\imageProcessTif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A3ED8-E851-458E-A317-6FD28615CDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33405D23-47D0-4349-98E3-D0C825E41B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -44,30 +44,6 @@
     <t>dataset05, scaled to voxel size of 2.53,2.53,10</t>
   </si>
   <si>
-    <t>x0 ind</t>
-  </si>
-  <si>
-    <t>y0 ind</t>
-  </si>
-  <si>
-    <t>dx ind</t>
-  </si>
-  <si>
-    <t>dy ind</t>
-  </si>
-  <si>
-    <t>x1 ind</t>
-  </si>
-  <si>
-    <t>y1 ind</t>
-  </si>
-  <si>
-    <t>z0 ind</t>
-  </si>
-  <si>
-    <t>z1 ind</t>
-  </si>
-  <si>
     <t>X (width)</t>
   </si>
   <si>
@@ -83,9 +59,6 @@
     <t>488 nm</t>
   </si>
   <si>
-    <t>dz ind</t>
-  </si>
-  <si>
     <t>dz_norm</t>
   </si>
   <si>
@@ -140,22 +113,43 @@
     <t>whole_organism</t>
   </si>
   <si>
-    <t>z belly - toward high z value</t>
-  </si>
-  <si>
-    <t>z_interest</t>
-  </si>
-  <si>
-    <t>x belly - toward high x value</t>
-  </si>
-  <si>
-    <t>y belly - toward high y value</t>
-  </si>
-  <si>
     <t>x_interest</t>
   </si>
   <si>
     <t>y_interest</t>
+  </si>
+  <si>
+    <t>x0_ind</t>
+  </si>
+  <si>
+    <t>x1_ind</t>
+  </si>
+  <si>
+    <t>dx_ind</t>
+  </si>
+  <si>
+    <t>y0_ind</t>
+  </si>
+  <si>
+    <t>y1_ind</t>
+  </si>
+  <si>
+    <t>dy_ind</t>
+  </si>
+  <si>
+    <t>dz_ind</t>
+  </si>
+  <si>
+    <t>z_interest (coordinate)</t>
+  </si>
+  <si>
+    <t>z1_ind (coordinate)</t>
+  </si>
+  <si>
+    <t>z0_ind (coordinate)</t>
+  </si>
+  <si>
+    <t>other comments: x, y, and z values are given as coordinates (counting starts with 0), whereas when duplicating a z-stack in Fiji, the stack number has to be given (where counting starts with 1).</t>
   </si>
 </sst>
 </file>
@@ -573,146 +567,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="10.28515625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="8" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="2" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9.42578125" customWidth="1"/>
-    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="2" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.140625" collapsed="1"/>
+    <col min="29" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -738,10 +720,10 @@
         <v>1151</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y3">
         <f>X3-W3</f>
@@ -757,27 +739,27 @@
         <v>100</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="AD3">
+        <v>484</v>
       </c>
       <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -803,10 +785,10 @@
         <v>1201</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y4">
         <f t="shared" ref="Y4:Y7" si="2">X4-W4</f>
@@ -822,27 +804,27 @@
         <v>100</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>727</v>
+      </c>
+      <c r="AD4">
+        <v>410</v>
       </c>
       <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -868,10 +850,10 @@
         <v>1242</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
@@ -887,27 +869,27 @@
         <v>105</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="AD5">
+        <v>407</v>
       </c>
       <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -933,10 +915,10 @@
         <v>1063</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y6">
         <f t="shared" si="2"/>
@@ -952,27 +934,27 @@
         <v>100</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="AD6">
+        <v>540</v>
       </c>
       <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -998,10 +980,10 @@
         <v>991</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y7">
         <f t="shared" si="2"/>
@@ -1017,27 +999,27 @@
         <v>97</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AD7">
+        <v>511</v>
       </c>
       <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -1063,10 +1045,10 @@
         <v>1280</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y8">
         <f>X8-W8</f>
@@ -1082,31 +1064,31 @@
         <v>91</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="AD8">
+        <v>357</v>
       </c>
       <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1118,7 +1100,7 @@
         <v>878</v>
       </c>
       <c r="S11">
-        <f>R11-Q11</f>
+        <f t="shared" ref="S11:S17" si="3">R11-Q11</f>
         <v>588</v>
       </c>
       <c r="T11">
@@ -1128,17 +1110,17 @@
         <v>1914</v>
       </c>
       <c r="V11">
-        <f>U11-T11</f>
+        <f t="shared" ref="V11:V17" si="4">U11-T11</f>
         <v>1742</v>
       </c>
       <c r="W11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y11">
-        <f>X11-W11</f>
+        <f t="shared" ref="Y11:Y17" si="5">X11-W11</f>
         <v>44</v>
       </c>
       <c r="Z11">
@@ -1151,27 +1133,27 @@
         <v>50</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>684</v>
+      </c>
+      <c r="AD11">
+        <v>1648</v>
       </c>
       <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1183,7 +1165,7 @@
         <v>970</v>
       </c>
       <c r="S12">
-        <f>R12-Q12</f>
+        <f t="shared" si="3"/>
         <v>467</v>
       </c>
       <c r="T12">
@@ -1193,17 +1175,17 @@
         <v>1936</v>
       </c>
       <c r="V12">
-        <f>U12-T12</f>
+        <f t="shared" si="4"/>
         <v>1702</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y12">
-        <f>X12-W12</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="Z12">
@@ -1216,27 +1198,27 @@
         <v>55</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>665</v>
+      </c>
+      <c r="AD12">
+        <v>1692</v>
       </c>
       <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>3</v>
@@ -1248,7 +1230,7 @@
         <v>836</v>
       </c>
       <c r="S13">
-        <f>R13-Q13</f>
+        <f t="shared" si="3"/>
         <v>552</v>
       </c>
       <c r="T13">
@@ -1258,17 +1240,17 @@
         <v>1905</v>
       </c>
       <c r="V13">
-        <f>U13-T13</f>
+        <f t="shared" si="4"/>
         <v>1802</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y13">
-        <f>X13-W13</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="Z13">
@@ -1281,27 +1263,27 @@
         <v>55</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>705</v>
+      </c>
+      <c r="AD13">
+        <v>1642</v>
       </c>
       <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
@@ -1313,7 +1295,7 @@
         <v>857</v>
       </c>
       <c r="S14">
-        <f>R14-Q14</f>
+        <f t="shared" si="3"/>
         <v>558</v>
       </c>
       <c r="T14">
@@ -1323,17 +1305,17 @@
         <v>1881</v>
       </c>
       <c r="V14">
-        <f>U14-T14</f>
+        <f t="shared" si="4"/>
         <v>1695</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y14">
-        <f>X14-W14</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="Z14">
@@ -1346,27 +1328,27 @@
         <v>60</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>756</v>
+      </c>
+      <c r="AD14">
+        <v>1631</v>
       </c>
       <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>5</v>
@@ -1378,7 +1360,7 @@
         <v>849</v>
       </c>
       <c r="S15">
-        <f>R15-Q15</f>
+        <f t="shared" si="3"/>
         <v>445</v>
       </c>
       <c r="T15">
@@ -1388,17 +1370,17 @@
         <v>1929</v>
       </c>
       <c r="V15">
-        <f>U15-T15</f>
+        <f t="shared" si="4"/>
         <v>1640</v>
       </c>
       <c r="W15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y15">
-        <f>X15-W15</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="Z15">
@@ -1411,27 +1393,27 @@
         <v>50</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>520</v>
+      </c>
+      <c r="AD15">
+        <v>1685</v>
       </c>
       <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>6</v>
@@ -1443,7 +1425,7 @@
         <v>934</v>
       </c>
       <c r="S16">
-        <f>R16-Q16</f>
+        <f t="shared" si="3"/>
         <v>654</v>
       </c>
       <c r="T16">
@@ -1453,17 +1435,17 @@
         <v>1878</v>
       </c>
       <c r="V16">
-        <f>U16-T16</f>
+        <f t="shared" si="4"/>
         <v>1852</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y16">
-        <f>X16-W16</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="Z16">
@@ -1476,27 +1458,27 @@
         <v>50</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>849</v>
+      </c>
+      <c r="AD16">
+        <v>1598</v>
       </c>
       <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>7</v>
@@ -1508,7 +1490,7 @@
         <v>774</v>
       </c>
       <c r="S17">
-        <f>R17-Q17</f>
+        <f t="shared" si="3"/>
         <v>402</v>
       </c>
       <c r="T17">
@@ -1518,17 +1500,17 @@
         <v>1909</v>
       </c>
       <c r="V17">
-        <f>U17-T17</f>
+        <f t="shared" si="4"/>
         <v>1804</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y17">
-        <f>X17-W17</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="Z17">
@@ -1541,31 +1523,31 @@
         <v>65</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>506</v>
+      </c>
+      <c r="AD17">
+        <v>1674</v>
       </c>
       <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F18" s="7"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1591,10 +1573,10 @@
         <v>610</v>
       </c>
       <c r="W20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X20">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y20">
         <f>X20-W20</f>
@@ -1610,27 +1592,27 @@
         <v>100</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="AD20">
+        <v>484</v>
       </c>
       <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -1642,7 +1624,7 @@
         <v>855</v>
       </c>
       <c r="S21">
-        <f t="shared" ref="S21:S25" si="3">R21-Q21</f>
+        <f t="shared" ref="S21:S25" si="6">R21-Q21</f>
         <v>268</v>
       </c>
       <c r="T21">
@@ -1652,17 +1634,17 @@
         <v>897</v>
       </c>
       <c r="V21">
-        <f t="shared" ref="V21:V25" si="4">U21-T21</f>
+        <f t="shared" ref="V21:V25" si="7">U21-T21</f>
         <v>660</v>
       </c>
       <c r="W21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X21">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y21">
-        <f t="shared" ref="Y21:Y25" si="5">X21-W21</f>
+        <f t="shared" ref="Y21:Y25" si="8">X21-W21</f>
         <v>86</v>
       </c>
       <c r="Z21">
@@ -1675,27 +1657,27 @@
         <v>100</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>727</v>
+      </c>
+      <c r="AD21">
+        <v>410</v>
       </c>
       <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1707,7 +1689,7 @@
         <v>642</v>
       </c>
       <c r="S22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="T22">
@@ -1717,17 +1699,17 @@
         <v>898</v>
       </c>
       <c r="V22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>681</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="Z22">
@@ -1740,27 +1722,27 @@
         <v>105</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>479</v>
+      </c>
+      <c r="AD22">
+        <v>407</v>
       </c>
       <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
@@ -1772,7 +1754,7 @@
         <v>662</v>
       </c>
       <c r="S23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="T23">
@@ -1782,17 +1764,17 @@
         <v>991</v>
       </c>
       <c r="V23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>646</v>
       </c>
       <c r="W23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X23">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="Z23">
@@ -1805,27 +1787,27 @@
         <v>100</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>468</v>
+      </c>
+      <c r="AD23">
+        <v>540</v>
       </c>
       <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
         <v>5</v>
@@ -1837,7 +1819,7 @@
         <v>709</v>
       </c>
       <c r="S24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="T24">
@@ -1847,17 +1829,17 @@
         <v>983</v>
       </c>
       <c r="V24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>656</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="Z24">
@@ -1870,27 +1852,27 @@
         <v>97</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>574</v>
+      </c>
+      <c r="AD24">
+        <v>511</v>
       </c>
       <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>6</v>
@@ -1902,7 +1884,7 @@
         <v>624</v>
       </c>
       <c r="S25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
       <c r="T25">
@@ -1912,17 +1894,17 @@
         <v>817</v>
       </c>
       <c r="V25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>642</v>
       </c>
       <c r="W25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X25">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="Z25">
@@ -1935,31 +1917,31 @@
         <v>91</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>465</v>
+      </c>
+      <c r="AD25">
+        <v>357</v>
       </c>
       <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
@@ -1971,7 +1953,7 @@
         <v>878</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S28:S34" si="6">R28-Q28</f>
+        <f t="shared" ref="S28:S34" si="9">R28-Q28</f>
         <v>436</v>
       </c>
       <c r="T28">
@@ -1981,17 +1963,17 @@
         <v>1914</v>
       </c>
       <c r="V28">
-        <f t="shared" ref="V28:V34" si="7">U28-T28</f>
+        <f t="shared" ref="V28:V34" si="10">U28-T28</f>
         <v>824</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y28">
-        <f t="shared" ref="Y28:Y34" si="8">X28-W28</f>
+        <f t="shared" ref="Y28:Y34" si="11">X28-W28</f>
         <v>43</v>
       </c>
       <c r="Z28">
@@ -2004,27 +1986,27 @@
         <v>50</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>684</v>
+      </c>
+      <c r="AD28">
+        <v>1648</v>
       </c>
       <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -2036,7 +2018,7 @@
         <v>970</v>
       </c>
       <c r="S29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>467</v>
       </c>
       <c r="T29">
@@ -2046,17 +2028,17 @@
         <v>1936</v>
       </c>
       <c r="V29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>784</v>
       </c>
       <c r="W29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X29">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>45</v>
       </c>
       <c r="Z29">
@@ -2069,27 +2051,27 @@
         <v>55</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>665</v>
+      </c>
+      <c r="AD29">
+        <v>1692</v>
       </c>
       <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <v>3</v>
@@ -2101,7 +2083,7 @@
         <v>836</v>
       </c>
       <c r="S30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>449</v>
       </c>
       <c r="T30">
@@ -2111,17 +2093,17 @@
         <v>1905</v>
       </c>
       <c r="V30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>797</v>
       </c>
       <c r="W30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X30">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="Z30">
@@ -2134,27 +2116,27 @@
         <v>55</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>705</v>
+      </c>
+      <c r="AD30">
+        <v>1642</v>
       </c>
       <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2166,7 +2148,7 @@
         <v>857</v>
       </c>
       <c r="S31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="T31">
@@ -2176,17 +2158,17 @@
         <v>1881</v>
       </c>
       <c r="V31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>747</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X31">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="Z31">
@@ -2199,27 +2181,27 @@
         <v>60</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>756</v>
+      </c>
+      <c r="AD31">
+        <v>1631</v>
       </c>
       <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
         <v>5</v>
@@ -2231,7 +2213,7 @@
         <v>832</v>
       </c>
       <c r="S32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>428</v>
       </c>
       <c r="T32">
@@ -2241,17 +2223,17 @@
         <v>1929</v>
       </c>
       <c r="V32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>788</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="Z32">
@@ -2264,27 +2246,27 @@
         <v>50</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>520</v>
+      </c>
+      <c r="AD32">
+        <v>1685</v>
       </c>
       <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <v>6</v>
@@ -2296,7 +2278,7 @@
         <v>934</v>
       </c>
       <c r="S33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>410</v>
       </c>
       <c r="T33">
@@ -2306,17 +2288,17 @@
         <v>1878</v>
       </c>
       <c r="V33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>902</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>47</v>
       </c>
       <c r="Z33">
@@ -2329,27 +2311,27 @@
         <v>50</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>849</v>
+      </c>
+      <c r="AD33">
+        <v>1598</v>
       </c>
       <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
         <v>7</v>
@@ -2361,7 +2343,7 @@
         <v>774</v>
       </c>
       <c r="S34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>402</v>
       </c>
       <c r="T34">
@@ -2371,17 +2353,17 @@
         <v>1918</v>
       </c>
       <c r="V34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>791</v>
       </c>
       <c r="W34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X34">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="Z34">
@@ -2394,18 +2376,23 @@
         <v>65</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>506</v>
+      </c>
+      <c r="AD34">
+        <v>1674</v>
       </c>
       <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F35" s="7"/>
       <c r="P35" s="8"/>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
